--- a/computation/data/Bohrungen_Kirchhellen.xlsx
+++ b/computation/data/Bohrungen_Kirchhellen.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D424AB-0986-4A67-8B9E-6F4C6044B07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4AA62F-7C15-4E69-AC2F-7A6F98BB18F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
     <sheet name="Prosper_V" sheetId="1" r:id="rId2"/>
-    <sheet name="SchwarzeHeide_1" sheetId="3" r:id="rId3"/>
-    <sheet name="kirchhellen raw" sheetId="10" r:id="rId4"/>
-    <sheet name="Kirchhellen Modell" sheetId="11" r:id="rId5"/>
-    <sheet name="Tabelle3" sheetId="12" r:id="rId6"/>
-    <sheet name="Prosper_V raw" sheetId="7" r:id="rId7"/>
-    <sheet name="Prosper_V Model" sheetId="8" r:id="rId8"/>
-    <sheet name="Tabelle4" sheetId="13" r:id="rId9"/>
+    <sheet name="Prosper_V raw" sheetId="7" r:id="rId3"/>
+    <sheet name="Prosper_V Model" sheetId="8" r:id="rId4"/>
+    <sheet name="SchwarzeHeideKirchhellen_1" sheetId="3" r:id="rId5"/>
+    <sheet name="kirchhellen raw" sheetId="10" r:id="rId6"/>
+    <sheet name="Kirchhellen Modell" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="3" hidden="1">'kirchhellen raw'!$A$1:$F$21</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="6" hidden="1">'Prosper_V raw'!$A$1:$C$36</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="5" hidden="1">'kirchhellen raw'!$A$1:$F$21</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">'Prosper_V raw'!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -415,9 +413,6 @@
     <t>JS</t>
   </si>
   <si>
-    <t>js</t>
-  </si>
-  <si>
     <t>VNK</t>
   </si>
   <si>
@@ -442,30 +437,6 @@
     <t>Sedimentäres Karbonatfestgestein Kalkmergelstein</t>
   </si>
   <si>
-    <t xml:space="preserve">tonmergelstein: </t>
-  </si>
-  <si>
-    <t>20k 80 t</t>
-  </si>
-  <si>
-    <t>kalkmergelstein</t>
-  </si>
-  <si>
-    <t>70k 30t</t>
-  </si>
-  <si>
-    <t>ton avg</t>
-  </si>
-  <si>
-    <t>kalvg</t>
-  </si>
-  <si>
-    <t>Kalkstein (min,max)</t>
-  </si>
-  <si>
-    <t>Tonstein (min,max)</t>
-  </si>
-  <si>
     <t>https://www.hausjournal.net/dichte-sand</t>
   </si>
   <si>
@@ -491,6 +462,15 @@
   </si>
   <si>
     <t>bis 419 (verzögerung)</t>
+  </si>
+  <si>
+    <t>AVG Dichte</t>
+  </si>
+  <si>
+    <t>AVG Dichte trocken</t>
+  </si>
+  <si>
+    <t>AVG Dichte nass</t>
   </si>
 </sst>
 </file>
@@ -548,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +572,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -642,7 +628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -651,37 +637,34 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
@@ -691,9 +674,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="20 % - Akzent2" xfId="5" builtinId="34"/>
+    <cellStyle name="20 % - Akzent6" xfId="8" builtinId="50"/>
     <cellStyle name="40 % - Akzent1" xfId="4" builtinId="31"/>
     <cellStyle name="40 % - Akzent3" xfId="6" builtinId="39"/>
     <cellStyle name="40 % - Akzent4" xfId="7" builtinId="43"/>
@@ -1229,6 +1215,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{B13BD711-01A0-48AF-9714-CD6D7CBADADB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="5" unboundColumnsRight="1">
+    <queryTableFields count="4">
+      <queryTableField id="1" name="Column1" tableColumnId="1"/>
+      <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="2" xr16:uid="{04AAF465-4309-483D-9618-875177520DFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
@@ -1243,20 +1242,20 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{B13BD711-01A0-48AF-9714-CD6D7CBADADB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5" unboundColumnsRight="1">
-    <queryTableFields count="4">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E9BC74F-F30B-4290-91E6-EFDA8F036049}" name="kirchhellen" displayName="kirchhellen" ref="A1:D36" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D36" xr:uid="{1E9BC74F-F30B-4290-91E6-EFDA8F036049}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8B53CB72-188C-453A-9954-CE55A1E19208}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{577F234E-7F22-48CA-85C1-09A2B8151EAA}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{C6B52D8E-442F-4E0D-BCCD-907FA5F56081}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DE437746-BDA8-416F-8B1B-ACC7CDAF3C8B}" uniqueName="4" name="Spalte1" queryTableFieldId="4" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDB2872A-138C-4284-AF40-6B0F58851B3A}" name="kirchhellen__2" displayName="kirchhellen__2" ref="A1:F21" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F21" xr:uid="{EDB2872A-138C-4284-AF40-6B0F58851B3A}"/>
   <tableColumns count="6">
@@ -1266,19 +1265,6 @@
     <tableColumn id="4" xr3:uid="{0C7C3CF0-D953-474D-83F5-EFE7B33E95B4}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{38C68AFF-85F2-4463-8879-456BEB7150E4}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{7D3A3379-69F8-4477-AB7E-70DDF5CEA57B}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E9BC74F-F30B-4290-91E6-EFDA8F036049}" name="kirchhellen" displayName="kirchhellen" ref="A1:D36" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D36" xr:uid="{1E9BC74F-F30B-4290-91E6-EFDA8F036049}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8B53CB72-188C-453A-9954-CE55A1E19208}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{577F234E-7F22-48CA-85C1-09A2B8151EAA}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{C6B52D8E-442F-4E0D-BCCD-907FA5F56081}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{DE437746-BDA8-416F-8B1B-ACC7CDAF3C8B}" uniqueName="4" name="Spalte1" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1602,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="U1:V14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -1727,6 +1713,984 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B139143-16B7-4DFF-AEB4-2EB7A3F3FBD6}">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>395.7</v>
+      </c>
+      <c r="B2">
+        <v>395.7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>398.6</v>
+      </c>
+      <c r="B3">
+        <v>2.9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>404</v>
+      </c>
+      <c r="B4">
+        <v>5.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>405.9</v>
+      </c>
+      <c r="B5">
+        <v>1.9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>407.7</v>
+      </c>
+      <c r="B6">
+        <v>1.8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>410</v>
+      </c>
+      <c r="B7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>410.4</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>411.2</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>415</v>
+      </c>
+      <c r="B10">
+        <v>3.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>418.2</v>
+      </c>
+      <c r="B11">
+        <v>3.2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>418.6</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>426.3</v>
+      </c>
+      <c r="B13">
+        <v>7.7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>427.6</v>
+      </c>
+      <c r="B14">
+        <v>1.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>432.9</v>
+      </c>
+      <c r="B15">
+        <v>5.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>435</v>
+      </c>
+      <c r="B16">
+        <v>2.1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>440.2</v>
+      </c>
+      <c r="B17">
+        <v>5.2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>443.6</v>
+      </c>
+      <c r="B18">
+        <v>3.4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>444.8</v>
+      </c>
+      <c r="B19">
+        <v>1.2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>448.9</v>
+      </c>
+      <c r="B20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>452.7</v>
+      </c>
+      <c r="B21">
+        <v>3.8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>453.2</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>466.2</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>473.6</v>
+      </c>
+      <c r="B24">
+        <v>7.4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>477.8</v>
+      </c>
+      <c r="B25">
+        <v>4.2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>481.5</v>
+      </c>
+      <c r="B26">
+        <v>3.7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>485.2</v>
+      </c>
+      <c r="B27">
+        <v>3.7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>487.8</v>
+      </c>
+      <c r="B28">
+        <v>2.6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>492</v>
+      </c>
+      <c r="B29">
+        <v>4.2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>497</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>499.6</v>
+      </c>
+      <c r="B31">
+        <v>2.6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>509.5</v>
+      </c>
+      <c r="B32">
+        <v>9.9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>519.20000000000005</v>
+      </c>
+      <c r="B33">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>520.70000000000005</v>
+      </c>
+      <c r="B34">
+        <v>1.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>840</v>
+      </c>
+      <c r="B35">
+        <v>319.3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1204</v>
+      </c>
+      <c r="B36">
+        <v>364</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB352316-E362-433F-AC72-8E4C9DA376C9}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="68.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>411.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">A3-C3/2</f>
+        <v>205.6</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="1">A3-A2</f>
+        <v>411.2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>415</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>413.1</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>466.2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>440.6</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>51.199999999999989</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>477.8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>11.600000000000023</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>481.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>479.65</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>485.2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>483.35</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>509.5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>497.35</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>24.300000000000011</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>519.20000000000005</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>514.35</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>9.7000000000000455</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1204</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>861.6</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>684.8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>411.2</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>415</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>466.2</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>477.8</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>481.5</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>485.2</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>509.5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4.99</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>519.20000000000005</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>1204</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="P1:Q14"/>
   <sheetViews>
@@ -1853,7 +2817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE041330-1F7F-426C-83FE-DFCD38935597}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -1897,16 +2861,16 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1917,16 +2881,16 @@
       <c r="B3">
         <v>22.5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1937,16 +2901,16 @@
       <c r="B4">
         <v>7.7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1957,16 +2921,16 @@
       <c r="B5">
         <v>16.600000000000001</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1977,16 +2941,16 @@
       <c r="B6">
         <v>10.4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1997,16 +2961,16 @@
       <c r="B7">
         <v>115.8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2017,16 +2981,16 @@
       <c r="B8">
         <v>113.8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2037,16 +3001,16 @@
       <c r="B9">
         <v>73.2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2057,16 +3021,16 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2077,16 +3041,16 @@
       <c r="B11">
         <v>26.6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2097,16 +3061,16 @@
       <c r="B12">
         <v>0.8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2117,16 +3081,16 @@
       <c r="B13">
         <v>21.1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2137,16 +3101,16 @@
       <c r="B14">
         <v>91.9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2157,16 +3121,16 @@
       <c r="B15">
         <v>1.55</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2177,16 +3141,16 @@
       <c r="B16">
         <v>4.12</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2197,16 +3161,16 @@
       <c r="B17">
         <v>150.37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2217,16 +3181,16 @@
       <c r="B18">
         <v>90.49</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2237,16 +3201,16 @@
       <c r="B19">
         <v>207.37</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2257,16 +3221,16 @@
       <c r="B20">
         <v>186.46</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2277,16 +3241,16 @@
       <c r="B21">
         <v>107.24</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2299,12 +3263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43AC973-8D90-4AED-A1F5-9BF397F0D07A}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,56 +3276,58 @@
     <col min="1" max="3" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="53.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2">
         <f>(A2-C2/2)*(-100)</f>
         <v>-100</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
       <c r="D2">
@@ -2369,25 +3335,29 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <f>L3</f>
+        <f>M3</f>
         <v>1.45</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P2" t="s">
+      <c r="H2">
+        <f>E2*C2</f>
+        <v>2.9</v>
+      </c>
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>24.5</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B21" si="0">(A3-C3/2)*(-100)</f>
         <v>-1325</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>22.5</v>
       </c>
       <c r="D3">
@@ -2395,38 +3365,42 @@
         <v>2250</v>
       </c>
       <c r="E3">
-        <f>L3</f>
+        <f>M3</f>
         <v>1.45</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="2">E3*C3</f>
+        <v>32.625</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.43</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.47</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3" si="2">AVERAGE(J3:K3)</f>
+      <c r="M3">
+        <f t="shared" ref="M3" si="3">AVERAGE(K3:L3)</f>
         <v>1.45</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>32.200000000000003</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>-2835</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>7.7</v>
       </c>
       <c r="D4">
@@ -2434,25 +3408,29 @@
         <v>770</v>
       </c>
       <c r="E4">
-        <f>L7</f>
+        <f>M7</f>
         <v>1.8699999999999999</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="F4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>48.8</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>-4050</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>16.600000000000001</v>
       </c>
       <c r="D5">
@@ -2460,28 +3438,32 @@
         <v>1660.0000000000002</v>
       </c>
       <c r="E5">
-        <f>L3</f>
+        <f>M3</f>
         <v>1.45</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I5" t="s">
-        <v>137</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>24.07</v>
+      </c>
+      <c r="J5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>59.2</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>-5400</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>10.4</v>
       </c>
       <c r="D6">
@@ -2489,25 +3471,29 @@
         <v>1040</v>
       </c>
       <c r="E6">
-        <f>L7</f>
+        <f>M7</f>
         <v>1.8699999999999999</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="F6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>19.448</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>175</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>-11710</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>115.8</v>
       </c>
       <c r="D7">
@@ -2515,29 +3501,33 @@
         <v>11580</v>
       </c>
       <c r="E7">
-        <f>L30</f>
+        <f>M29</f>
         <v>2.4</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7">
-        <f>Q24</f>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>277.91999999999996</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7">
+        <f>0.2*M13+0.8*M23</f>
         <v>1.8699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>288.8</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>-23190</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>113.8</v>
       </c>
       <c r="D8">
@@ -2545,32 +3535,36 @@
         <v>11380</v>
       </c>
       <c r="E8">
-        <f>$L7</f>
+        <f>$M7</f>
         <v>1.8699999999999999</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>212.80599999999998</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8">
-        <f>Q25</f>
+      <c r="M8">
+        <f>0.7*M13+0.3*M23</f>
         <v>2.0449999999999999</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>362</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>-32539.999999999996</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>73.2</v>
       </c>
       <c r="D9">
@@ -2578,28 +3572,32 @@
         <v>7320</v>
       </c>
       <c r="E9">
-        <f>L7</f>
+        <f>M7</f>
         <v>1.8699999999999999</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="F9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>136.88399999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>371</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>-36650</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10">
@@ -2607,28 +3605,32 @@
         <v>900</v>
       </c>
       <c r="E10">
-        <f>L8</f>
+        <f>M8</f>
         <v>2.0449999999999999</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="F10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>18.405000000000001</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>397.6</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>-38430</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>26.6</v>
       </c>
       <c r="D11">
@@ -2636,22 +3638,26 @@
         <v>2660</v>
       </c>
       <c r="E11">
-        <f>L13</f>
+        <f>M13</f>
         <v>2.15</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>57.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>398.4</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
         <v>-39800</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.8</v>
       </c>
       <c r="D12">
@@ -2659,31 +3665,35 @@
         <v>80</v>
       </c>
       <c r="E12">
-        <f>L13</f>
+        <f>M13</f>
         <v>2.15</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.72</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="P12" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="Q12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>419.5</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>-40895</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>21.1</v>
       </c>
       <c r="D13">
@@ -2691,38 +3701,42 @@
         <v>2110</v>
       </c>
       <c r="E13">
-        <f>L16</f>
+        <f>M16</f>
         <v>2.1</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>44.31</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="14">
         <v>1.55</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="14">
         <v>2.75</v>
       </c>
-      <c r="L13">
-        <f t="shared" ref="L13" si="3">AVERAGE(J13:K13)</f>
+      <c r="M13">
+        <f t="shared" ref="M13" si="4">AVERAGE(K13:L13)</f>
         <v>2.15</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>511.4</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>-46545</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>91.9</v>
       </c>
       <c r="D14">
@@ -2730,25 +3744,29 @@
         <v>9190</v>
       </c>
       <c r="E14">
-        <f>L19</f>
+        <f>M19</f>
         <v>2.65</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>243.535</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>512.95000000000005</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>-51217.500000000007</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1.55</v>
       </c>
       <c r="D15">
@@ -2756,25 +3774,29 @@
         <v>155</v>
       </c>
       <c r="E15">
-        <f>L22</f>
+        <f>M23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P15" t="s">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2.7899999999999996</v>
+      </c>
+      <c r="Q15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>517.07000000000005</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>-51501.000000000007</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>4.12</v>
       </c>
       <c r="D16">
@@ -2782,38 +3804,42 @@
         <v>412</v>
       </c>
       <c r="E16">
-        <f>L27</f>
+        <f>M26</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>10.094000000000001</v>
+      </c>
+      <c r="J16" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="14">
         <v>1.2</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="14">
         <v>3</v>
       </c>
-      <c r="L16">
-        <f t="shared" ref="L16" si="4">AVERAGE(J16:K16)</f>
+      <c r="M16">
+        <f t="shared" ref="M16" si="5">AVERAGE(K16:L16)</f>
         <v>2.1</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>667.44</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
         <v>-59225.500000000015</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>150.37</v>
       </c>
       <c r="D17">
@@ -2821,25 +3847,29 @@
         <v>15037</v>
       </c>
       <c r="E17">
-        <f>L22</f>
+        <f>M23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>270.666</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>757.93</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>-71268.5</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>90.49</v>
       </c>
       <c r="D18">
@@ -2847,25 +3877,29 @@
         <v>9049</v>
       </c>
       <c r="E18">
-        <f>L22</f>
+        <f>M23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P18" t="s">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>162.88199999999998</v>
+      </c>
+      <c r="Q18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>965.3</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>-86161.5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>207.37</v>
       </c>
       <c r="D19">
@@ -2873,38 +3907,42 @@
         <v>20737</v>
       </c>
       <c r="E19">
-        <f>L22</f>
+        <f>M23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>373.26599999999996</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="14">
         <v>2.4</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="14">
         <v>2.9</v>
       </c>
-      <c r="L19">
-        <f t="shared" ref="L19" si="5">AVERAGE(J19:K19)</f>
+      <c r="M19">
+        <f t="shared" ref="M19" si="6">AVERAGE(K19:L19)</f>
         <v>2.65</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>1151.76</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
         <v>-105853</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>186.46</v>
       </c>
       <c r="D20">
@@ -2912,25 +3950,29 @@
         <v>18646</v>
       </c>
       <c r="E20">
-        <f>L22</f>
+        <f>M23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>335.62799999999999</v>
+      </c>
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>1259</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
         <v>-120538.00000000001</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>107.24</v>
       </c>
       <c r="D21">
@@ -2938,124 +3980,121 @@
         <v>10724</v>
       </c>
       <c r="E21">
-        <f>L22</f>
+        <f>M23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="P21" t="s">
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>193.03199999999998</v>
+      </c>
+      <c r="Q21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="11" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H22" s="18">
+        <f>SUM(H2:H21)/SUM(C2:C21)</f>
+        <v>1.93373312152502</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J23" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="17">
+      <c r="K23" s="14">
         <v>1.3</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L23" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L22">
-        <f>AVERAGE(J22:K22)</f>
+      <c r="M23">
+        <f>AVERAGE(K23:L23)</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="P22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="O24" t="s">
-        <v>129</v>
-      </c>
-      <c r="P24" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q24">
-        <f>0.2*P29+0.8*P30</f>
-        <v>1.8699999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I25" t="s">
-        <v>119</v>
-      </c>
-      <c r="O25" t="s">
-        <v>131</v>
-      </c>
-      <c r="P25" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25">
-        <f>0.7*P29+0.3*P30</f>
-        <v>2.0449999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>0</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="20"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="B26" s="16"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="16"/>
+      <c r="F26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L26" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26" si="7">AVERAGE(K26:L26)</f>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>24.5</v>
       </c>
-      <c r="B27" s="20">
-        <f t="shared" ref="B27:B39" si="6">(A27-C27/2)*(-100)</f>
+      <c r="B27" s="16">
+        <f t="shared" ref="B27:B39" si="8">(A27-C27/2)*(-100)</f>
         <v>-1225</v>
       </c>
-      <c r="C27" s="7">
-        <f t="shared" ref="C27:C39" si="7">A27-A26</f>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:C39" si="9">A27-A26</f>
         <v>24.5</v>
       </c>
-      <c r="D27" s="20">
-        <f t="shared" ref="D27:D39" si="8">C27*100</f>
+      <c r="D27" s="16">
+        <f t="shared" ref="D27:D39" si="10">C27*100</f>
         <v>2450</v>
       </c>
-      <c r="E27" s="26">
-        <f>L3</f>
+      <c r="E27" s="22">
+        <f>M3</f>
         <v>1.45</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="23" t="s">
         <v>89</v>
       </c>
       <c r="G27">
@@ -3065,465 +4104,437 @@
         <f>E27*C27</f>
         <v>35.524999999999999</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K27" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ref="L27" si="9">AVERAGE(J27:K27)</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="P27" s="17">
-        <v>1.55</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>32.200000000000003</v>
       </c>
-      <c r="B28" s="20">
-        <f t="shared" si="6"/>
+      <c r="B28" s="16">
+        <f t="shared" si="8"/>
         <v>-2835</v>
       </c>
-      <c r="C28" s="7">
-        <f t="shared" si="7"/>
+      <c r="C28" s="6">
+        <f t="shared" si="9"/>
         <v>7.7000000000000028</v>
       </c>
-      <c r="D28" s="20">
-        <f t="shared" si="8"/>
+      <c r="D28" s="16">
+        <f t="shared" si="10"/>
         <v>770.00000000000023</v>
       </c>
-      <c r="E28" s="28">
-        <f>L7</f>
+      <c r="E28" s="24">
+        <f>M7</f>
         <v>1.8699999999999999</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>127</v>
+      <c r="F28" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H39" si="10">E28*C28</f>
+        <f>E28*C28</f>
         <v>14.399000000000004</v>
       </c>
-      <c r="I28" t="s">
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>48.8</v>
+      </c>
+      <c r="B29" s="16">
+        <f t="shared" si="8"/>
+        <v>-4050</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="9"/>
+        <v>16.599999999999994</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="10"/>
+        <v>1659.9999999999995</v>
+      </c>
+      <c r="E29" s="22">
+        <f>M3</f>
+        <v>1.45</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29">
+        <f>E29*C29</f>
+        <v>24.06999999999999</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="14">
+        <v>2</v>
+      </c>
+      <c r="L29" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29" si="11">AVERAGE(K29:L29)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>59.2</v>
+      </c>
+      <c r="B30" s="16">
+        <f t="shared" si="8"/>
+        <v>-5400</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="9"/>
+        <v>10.400000000000006</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="10"/>
+        <v>1040.0000000000005</v>
+      </c>
+      <c r="E30" s="24">
+        <f>M7</f>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="P28" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="Q28" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>48.8</v>
-      </c>
-      <c r="B29" s="20">
-        <f t="shared" si="6"/>
-        <v>-4050</v>
-      </c>
-      <c r="C29" s="7">
-        <f t="shared" si="7"/>
-        <v>16.599999999999994</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="H30">
+        <f>E30*C30</f>
+        <v>19.448000000000011</v>
+      </c>
+      <c r="J30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>175</v>
+      </c>
+      <c r="B31" s="16">
         <f t="shared" si="8"/>
-        <v>1659.9999999999995</v>
-      </c>
-      <c r="E29" s="26">
-        <f>L3</f>
-        <v>1.45</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29">
+        <v>-11710</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="9"/>
+        <v>115.8</v>
+      </c>
+      <c r="D31" s="16">
         <f t="shared" si="10"/>
-        <v>24.06999999999999</v>
-      </c>
-      <c r="O29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P29">
-        <f>AVERAGE(P27:Q27)</f>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>59.2</v>
-      </c>
-      <c r="B30" s="20">
-        <f t="shared" si="6"/>
-        <v>-5400</v>
-      </c>
-      <c r="C30" s="7">
-        <f t="shared" si="7"/>
-        <v>10.400000000000006</v>
-      </c>
-      <c r="D30" s="20">
-        <f t="shared" si="8"/>
-        <v>1040.0000000000005</v>
-      </c>
-      <c r="E30" s="28">
-        <f>L7</f>
-        <v>1.8699999999999999</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="10"/>
-        <v>19.448000000000011</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="17">
-        <v>2</v>
-      </c>
-      <c r="K30" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ref="L30" si="11">AVERAGE(J30:K30)</f>
+        <v>11580</v>
+      </c>
+      <c r="E31">
+        <f>M29</f>
         <v>2.4</v>
       </c>
-      <c r="O30" t="s">
-        <v>133</v>
-      </c>
-      <c r="P30">
-        <f>AVERAGE(P28:Q28)</f>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>175</v>
-      </c>
-      <c r="B31" s="20">
-        <f t="shared" si="6"/>
-        <v>-11710</v>
-      </c>
-      <c r="C31" s="7">
-        <f t="shared" si="7"/>
-        <v>115.8</v>
-      </c>
-      <c r="D31" s="20">
-        <f t="shared" si="8"/>
-        <v>11580</v>
-      </c>
-      <c r="E31">
-        <f>L30</f>
-        <v>2.4</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
+        <f>E31*C31</f>
+        <v>277.91999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>362</v>
+      </c>
+      <c r="B32" s="16">
+        <f t="shared" si="8"/>
+        <v>-26850</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="9"/>
+        <v>187</v>
+      </c>
+      <c r="D32" s="16">
         <f t="shared" si="10"/>
-        <v>277.91999999999996</v>
-      </c>
-      <c r="I31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>362</v>
-      </c>
-      <c r="B32" s="20">
-        <f t="shared" si="6"/>
-        <v>-26850</v>
-      </c>
-      <c r="C32" s="7">
-        <f t="shared" si="7"/>
-        <v>187</v>
-      </c>
-      <c r="D32" s="20">
+        <v>18700</v>
+      </c>
+      <c r="E32" s="24">
+        <f>M7</f>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32">
+        <f>E32*C32</f>
+        <v>349.69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>371</v>
+      </c>
+      <c r="B33" s="16">
         <f t="shared" si="8"/>
-        <v>18700</v>
-      </c>
-      <c r="E32" s="28">
-        <f>L7</f>
-        <v>1.8699999999999999</v>
-      </c>
-      <c r="F32" s="29" t="s">
+        <v>-36650</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="10"/>
+        <v>900</v>
+      </c>
+      <c r="E33">
+        <f>M8</f>
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="10"/>
-        <v>349.69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>371</v>
-      </c>
-      <c r="B33" s="20">
-        <f t="shared" si="6"/>
-        <v>-36650</v>
-      </c>
-      <c r="C33" s="7">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D33" s="20">
-        <f t="shared" si="8"/>
-        <v>900</v>
-      </c>
-      <c r="E33">
-        <f>L8</f>
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
+        <f>E33*C33</f>
+        <v>18.405000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>398.4</v>
+      </c>
+      <c r="B34" s="16">
+        <f t="shared" si="8"/>
+        <v>-38470</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="9"/>
+        <v>27.399999999999977</v>
+      </c>
+      <c r="D34" s="16">
         <f t="shared" si="10"/>
-        <v>18.405000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>398.4</v>
-      </c>
-      <c r="B34" s="20">
-        <f t="shared" si="6"/>
-        <v>-38470</v>
-      </c>
-      <c r="C34" s="7">
-        <f t="shared" si="7"/>
-        <v>27.399999999999977</v>
-      </c>
-      <c r="D34" s="20">
-        <f t="shared" si="8"/>
         <v>2739.9999999999977</v>
       </c>
       <c r="E34">
-        <f>L13</f>
+        <f>M13</f>
         <v>2.15</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
+        <f>E34*C34</f>
+        <v>58.909999999999947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>419.5</v>
+      </c>
+      <c r="B35" s="16">
+        <f t="shared" si="8"/>
+        <v>-40895</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="9"/>
+        <v>21.100000000000023</v>
+      </c>
+      <c r="D35" s="16">
         <f t="shared" si="10"/>
-        <v>58.909999999999947</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>419.5</v>
-      </c>
-      <c r="B35" s="20">
-        <f t="shared" si="6"/>
-        <v>-40895</v>
-      </c>
-      <c r="C35" s="7">
-        <f t="shared" si="7"/>
-        <v>21.100000000000023</v>
-      </c>
-      <c r="D35" s="20">
-        <f t="shared" si="8"/>
         <v>2110.0000000000023</v>
       </c>
       <c r="E35">
-        <f>L16</f>
+        <f>M16</f>
         <v>2.1</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
+        <f>E35*C35</f>
+        <v>44.310000000000052</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>511.4</v>
+      </c>
+      <c r="B36" s="16">
+        <f t="shared" si="8"/>
+        <v>-46545</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="9"/>
+        <v>91.899999999999977</v>
+      </c>
+      <c r="D36" s="16">
         <f t="shared" si="10"/>
-        <v>44.310000000000052</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>511.4</v>
-      </c>
-      <c r="B36" s="20">
-        <f t="shared" si="6"/>
-        <v>-46545</v>
-      </c>
-      <c r="C36" s="7">
-        <f t="shared" si="7"/>
-        <v>91.899999999999977</v>
-      </c>
-      <c r="D36" s="20">
-        <f t="shared" si="8"/>
         <v>9189.9999999999982</v>
       </c>
       <c r="E36">
-        <f>L19</f>
+        <f>M19</f>
         <v>2.65</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="4" t="s">
         <v>99</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
+        <f>E36*C36</f>
+        <v>243.53499999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>512.95000000000005</v>
+      </c>
+      <c r="B37" s="16">
+        <f t="shared" si="8"/>
+        <v>-51217.499999999993</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="9"/>
+        <v>1.5500000000000682</v>
+      </c>
+      <c r="D37" s="16">
         <f t="shared" si="10"/>
-        <v>243.53499999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
-        <v>512.95000000000005</v>
-      </c>
-      <c r="B37" s="20">
-        <f t="shared" si="6"/>
-        <v>-51217.499999999993</v>
-      </c>
-      <c r="C37" s="7">
-        <f t="shared" si="7"/>
-        <v>1.5500000000000682</v>
-      </c>
-      <c r="D37" s="20">
-        <f t="shared" si="8"/>
         <v>155.00000000000682</v>
       </c>
-      <c r="E37" s="30">
-        <f>L22</f>
+      <c r="E37" s="26">
+        <f>M23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="27" t="s">
         <v>43</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
+        <f>E37*C37</f>
+        <v>2.7900000000001226</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>517.07000000000005</v>
+      </c>
+      <c r="B38" s="16">
+        <f t="shared" si="8"/>
+        <v>-51501</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="9"/>
+        <v>4.1200000000000045</v>
+      </c>
+      <c r="D38" s="16">
         <f t="shared" si="10"/>
-        <v>2.7900000000001226</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <v>517.07000000000005</v>
-      </c>
-      <c r="B38" s="20">
-        <f t="shared" si="6"/>
-        <v>-51501</v>
-      </c>
-      <c r="C38" s="7">
-        <f t="shared" si="7"/>
-        <v>4.1200000000000045</v>
-      </c>
-      <c r="D38" s="20">
-        <f t="shared" si="8"/>
         <v>412.00000000000045</v>
       </c>
       <c r="E38">
-        <f>L27</f>
+        <f>M26</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
+        <f>E38*C38</f>
+        <v>10.094000000000012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>1259</v>
+      </c>
+      <c r="B39" s="16">
+        <f t="shared" si="8"/>
+        <v>-88803.500000000015</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="9"/>
+        <v>741.93</v>
+      </c>
+      <c r="D39" s="16">
         <f t="shared" si="10"/>
-        <v>10.094000000000012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <v>1259</v>
-      </c>
-      <c r="B39" s="20">
-        <f t="shared" si="6"/>
-        <v>-88803.500000000015</v>
-      </c>
-      <c r="C39" s="7">
-        <f t="shared" si="7"/>
-        <v>741.93</v>
-      </c>
-      <c r="D39" s="20">
-        <f t="shared" si="8"/>
         <v>74193</v>
       </c>
-      <c r="E39" s="30">
-        <f>L22</f>
+      <c r="E39" s="26">
+        <f>M23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="27" t="s">
         <v>103</v>
       </c>
       <c r="H39">
-        <f t="shared" si="10"/>
+        <f>E39*C39</f>
         <v>1335.4739999999997</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="C41" s="7"/>
-      <c r="F41" s="9"/>
-      <c r="H41" s="22">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="18">
         <f>SUM(H27:H39)/SUM(C27:C39)</f>
         <v>1.9337331215250195</v>
       </c>
-      <c r="I41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="C43" s="7"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="18"/>
+      <c r="J41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="18">
+        <f>SUM(H27:H35)/SUM(C27:C35)</f>
+        <v>2.0087651966626936</v>
+      </c>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="18">
+        <f>SUM(H36:H39)/SUM(C36:C39)</f>
+        <v>1.8962394282310897</v>
+      </c>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" ref="B45:B55" si="12">($A$39-C45/2)*100</f>
         <v>120900</v>
@@ -3535,11 +4546,8 @@
         <f>C45*100</f>
         <v>10000</v>
       </c>
-      <c r="H45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="12"/>
         <v>115900</v>
@@ -3551,15 +4559,8 @@
         <f t="shared" ref="D46:D48" si="13">C46*100</f>
         <v>20000</v>
       </c>
-      <c r="H46" t="s">
-        <v>142</v>
-      </c>
-      <c r="I46">
-        <f>1259-511</f>
-        <v>748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="12"/>
         <v>110900</v>
@@ -3571,11 +4572,8 @@
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
-      <c r="H47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="12"/>
         <v>109700</v>
@@ -3587,15 +4585,8 @@
         <f t="shared" si="13"/>
         <v>32400</v>
       </c>
-      <c r="H48">
-        <v>419</v>
-      </c>
-      <c r="I48">
-        <f>1259-419</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="12"/>
         <v>105900</v>
@@ -3608,7 +4599,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="12"/>
         <v>100900</v>
@@ -3621,7 +4612,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="12"/>
         <v>95900</v>
@@ -3633,8 +4624,11 @@
         <f t="shared" si="14"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="12"/>
         <v>90900</v>
@@ -3646,13 +4640,20 @@
         <f t="shared" si="14"/>
         <v>70000</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>133</v>
+      </c>
+      <c r="L52">
+        <f>1259-511</f>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="12"/>
         <v>88500</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="21">
         <v>748</v>
       </c>
       <c r="D53">
@@ -3660,10 +4661,13 @@
         <v>74800</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="J53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="12"/>
         <v>85900</v>
@@ -3679,13 +4683,20 @@
         <f>A36-52.4/2</f>
         <v>485.2</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>419</v>
+      </c>
+      <c r="L54">
+        <f>1259-419</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="12"/>
         <v>83900</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="16">
         <v>840</v>
       </c>
       <c r="D55">
@@ -3693,1547 +4704,15 @@
         <v>84000</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I37" r:id="rId1" xr:uid="{F7DD4C36-2A59-4B08-AB96-5546DA4974E8}"/>
+    <hyperlink ref="J37" r:id="rId1" xr:uid="{F7DD4C36-2A59-4B08-AB96-5546DA4974E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD83080-9D3B-4DA6-8935-467CF4A541C2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B139143-16B7-4DFF-AEB4-2EB7A3F3FBD6}">
-  <dimension ref="A1:O36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>395.7</v>
-      </c>
-      <c r="B2">
-        <v>395.7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>398.6</v>
-      </c>
-      <c r="B3">
-        <v>2.9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>404</v>
-      </c>
-      <c r="B4">
-        <v>5.4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>405.9</v>
-      </c>
-      <c r="B5">
-        <v>1.9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>407.7</v>
-      </c>
-      <c r="B6">
-        <v>1.8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>410</v>
-      </c>
-      <c r="B7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>410.4</v>
-      </c>
-      <c r="B8">
-        <v>0.4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>411.2</v>
-      </c>
-      <c r="B9">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>415</v>
-      </c>
-      <c r="B10">
-        <v>3.8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>418.2</v>
-      </c>
-      <c r="B11">
-        <v>3.2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>418.6</v>
-      </c>
-      <c r="B12">
-        <v>0.4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>426.3</v>
-      </c>
-      <c r="B13">
-        <v>7.7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>427.6</v>
-      </c>
-      <c r="B14">
-        <v>1.3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>432.9</v>
-      </c>
-      <c r="B15">
-        <v>5.3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>435</v>
-      </c>
-      <c r="B16">
-        <v>2.1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>440.2</v>
-      </c>
-      <c r="B17">
-        <v>5.2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>443.6</v>
-      </c>
-      <c r="B18">
-        <v>3.4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>444.8</v>
-      </c>
-      <c r="B19">
-        <v>1.2</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>448.9</v>
-      </c>
-      <c r="B20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>452.7</v>
-      </c>
-      <c r="B21">
-        <v>3.8</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>453.2</v>
-      </c>
-      <c r="B22">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>466.2</v>
-      </c>
-      <c r="B23">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>473.6</v>
-      </c>
-      <c r="B24">
-        <v>7.4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>477.8</v>
-      </c>
-      <c r="B25">
-        <v>4.2</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>481.5</v>
-      </c>
-      <c r="B26">
-        <v>3.7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>485.2</v>
-      </c>
-      <c r="B27">
-        <v>3.7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>487.8</v>
-      </c>
-      <c r="B28">
-        <v>2.6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>492</v>
-      </c>
-      <c r="B29">
-        <v>4.2</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>497</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>499.6</v>
-      </c>
-      <c r="B31">
-        <v>2.6</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>509.5</v>
-      </c>
-      <c r="B32">
-        <v>9.9</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>519.20000000000005</v>
-      </c>
-      <c r="B33">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>520.70000000000005</v>
-      </c>
-      <c r="B34">
-        <v>1.5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>840</v>
-      </c>
-      <c r="B35">
-        <v>319.3</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1204</v>
-      </c>
-      <c r="B36">
-        <v>364</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB352316-E362-433F-AC72-8E4C9DA376C9}">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="68.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>411.2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">A3-C3/2</f>
-        <v>205.6</v>
-      </c>
-      <c r="C3" s="7">
-        <f t="shared" ref="C3:C11" si="1">A3-A2</f>
-        <v>411.2</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>415</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>413.1</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" si="1"/>
-        <v>3.8000000000000114</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>466.2</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>440.6</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>51.199999999999989</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>477.8</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>472</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>11.600000000000023</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>481.5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>479.65</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>3.6999999999999886</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>485.2</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>483.35</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>3.6999999999999886</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>509.5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>497.35</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>24.300000000000011</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>519.20000000000005</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>514.35</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>9.7000000000000455</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1204</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>861.6</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>684.8</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>411.2</v>
-      </c>
-      <c r="B16" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>415</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>466.2</v>
-      </c>
-      <c r="B18" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>477.8</v>
-      </c>
-      <c r="B19" s="12">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>481.5</v>
-      </c>
-      <c r="B20" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>485.2</v>
-      </c>
-      <c r="B21" s="12">
-        <v>2.71</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>509.5</v>
-      </c>
-      <c r="B22" s="10">
-        <v>4.99</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>519.20000000000005</v>
-      </c>
-      <c r="B23" s="12">
-        <v>2.71</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>1204</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EA77FB-5827-49E3-9C93-8CF8F306686D}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="20"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>24.5</v>
-      </c>
-      <c r="B3" s="20">
-        <f t="shared" ref="B3:B15" si="0">(A3-C3/2)*(-100)</f>
-        <v>-1225</v>
-      </c>
-      <c r="C3" s="7">
-        <f t="shared" ref="C3:C15" si="1">A3-A2</f>
-        <v>24.5</v>
-      </c>
-      <c r="D3" s="20">
-        <f t="shared" ref="D3:D15" si="2">C3*100</f>
-        <v>2450</v>
-      </c>
-      <c r="E3">
-        <f>L3</f>
-        <v>1.45</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3">
-        <v>1.43</v>
-      </c>
-      <c r="K3">
-        <v>1.47</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3" si="3">AVERAGE(J3:K3)</f>
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="B4" s="20">
-        <f t="shared" si="0"/>
-        <v>-2835</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" si="1"/>
-        <v>7.7000000000000028</v>
-      </c>
-      <c r="D4" s="20">
-        <f t="shared" si="2"/>
-        <v>770.00000000000023</v>
-      </c>
-      <c r="E4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>48.8</v>
-      </c>
-      <c r="B5" s="20">
-        <f t="shared" si="0"/>
-        <v>-4050</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>16.599999999999994</v>
-      </c>
-      <c r="D5" s="20">
-        <f t="shared" si="2"/>
-        <v>1659.9999999999995</v>
-      </c>
-      <c r="E5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>59.2</v>
-      </c>
-      <c r="B6" s="20">
-        <f t="shared" si="0"/>
-        <v>-5400</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>10.400000000000006</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" si="2"/>
-        <v>1040.0000000000005</v>
-      </c>
-      <c r="E6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>175</v>
-      </c>
-      <c r="B7" s="20">
-        <f t="shared" si="0"/>
-        <v>-11710</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>115.8</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="2"/>
-        <v>11580</v>
-      </c>
-      <c r="E7">
-        <f>L6</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7">
-        <f>Q24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>362</v>
-      </c>
-      <c r="B8" s="20">
-        <f t="shared" si="0"/>
-        <v>-26850</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="D8" s="20">
-        <f t="shared" si="2"/>
-        <v>18700</v>
-      </c>
-      <c r="E8" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8">
-        <f>Q25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>371</v>
-      </c>
-      <c r="B9" s="20">
-        <f t="shared" si="0"/>
-        <v>-36650</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D9" s="20">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-      <c r="E9" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>398.4</v>
-      </c>
-      <c r="B10" s="20">
-        <f t="shared" si="0"/>
-        <v>-38470</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>27.399999999999977</v>
-      </c>
-      <c r="D10" s="20">
-        <f t="shared" si="2"/>
-        <v>2739.9999999999977</v>
-      </c>
-      <c r="E10" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>419.5</v>
-      </c>
-      <c r="B11" s="20">
-        <f t="shared" si="0"/>
-        <v>-40895</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>21.100000000000023</v>
-      </c>
-      <c r="D11" s="20">
-        <f t="shared" si="2"/>
-        <v>2110.0000000000023</v>
-      </c>
-      <c r="E11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>511.4</v>
-      </c>
-      <c r="B12" s="20">
-        <f t="shared" si="0"/>
-        <v>-46545</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>91.899999999999977</v>
-      </c>
-      <c r="D12" s="20">
-        <f t="shared" si="2"/>
-        <v>9189.9999999999982</v>
-      </c>
-      <c r="E12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>512.95000000000005</v>
-      </c>
-      <c r="B13" s="20">
-        <f t="shared" si="0"/>
-        <v>-51217.499999999993</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5500000000000682</v>
-      </c>
-      <c r="D13" s="20">
-        <f t="shared" si="2"/>
-        <v>155.00000000000682</v>
-      </c>
-      <c r="E13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="17">
-        <v>1.55</v>
-      </c>
-      <c r="K13" s="17">
-        <v>2.75</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ref="L13" si="4">AVERAGE(J13:K13)</f>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>517.07000000000005</v>
-      </c>
-      <c r="B14" s="20">
-        <f t="shared" si="0"/>
-        <v>-51501</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1200000000000045</v>
-      </c>
-      <c r="D14" s="20">
-        <f t="shared" si="2"/>
-        <v>412.00000000000045</v>
-      </c>
-      <c r="E14">
-        <f>L3</f>
-        <v>1.45</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>1259</v>
-      </c>
-      <c r="B15" s="20">
-        <f t="shared" si="0"/>
-        <v>-88803.500000000015</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="1"/>
-        <v>741.93</v>
-      </c>
-      <c r="D15" s="20">
-        <f t="shared" si="2"/>
-        <v>74193</v>
-      </c>
-      <c r="E15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="K16" s="17">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ref="L16" si="5">AVERAGE(J16:K16)</f>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="17">
-        <v>2.4</v>
-      </c>
-      <c r="K19" s="17">
-        <v>2.9</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ref="L19" si="6">AVERAGE(J19:K19)</f>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="K22" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L22">
-        <f>AVERAGE(J22:K22)</f>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K27" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ref="L27" si="7">AVERAGE(J27:K27)</f>
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I30" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="17">
-        <v>2</v>
-      </c>
-      <c r="K30" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ref="L30" si="8">AVERAGE(J30:K30)</f>
-        <v>2.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
